--- a/biology/Botanique/Rhizophoraceae/Rhizophoraceae.xlsx
+++ b/biology/Botanique/Rhizophoraceae/Rhizophoraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Rhizophoraceae (les Rhizophoracées) est une famille de plantes à fleurs dicotylédones de l'ordre des Malpighiales qui comprend 15 genres pour 149 espèces au total.
 Ce sont des arbres et des arbustes, à racines aériennes, des milieux humides et salées des régions tropicales. Le principal genre est Cassipourea avec 69 espèces.
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Rhizophora composé des mots grecs ρίζα / rhiza), racine, et φόρων / foron, porter, en référence aux racines "sur pilotis" (en forme d'échasses) ou aux graines qui germent sur l'arbre.
 </t>
@@ -544,11 +558,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG (1998)[1] situe cette famille dans l'ordre des Malpighiales.
-La classification phylogénétique APG II (2003)[2] permet d'inclure, optionnellement, la famille Erythroxylacées.
-La classification phylogénétique APG III (2009)[3] n'inclut pas la famille Erythroxylacées.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG (1998) situe cette famille dans l'ordre des Malpighiales.
+La classification phylogénétique APG II (2003) permet d'inclure, optionnellement, la famille Erythroxylacées.
+La classification phylogénétique APG III (2009) n'inclut pas la famille Erythroxylacées.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Selon Catalogue of Life (Septembre 2015) :
 Anopyxis
@@ -622,7 +640,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon Catalogue of Life (Juillet 2015) :
 genre Anopyxis
